--- a/Jogos_do_Dia/2023-11-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ44"/>
+  <dimension ref="A1:AQ45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.71</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.36</v>
@@ -718,10 +718,10 @@
         <v>3.6</v>
       </c>
       <c r="S2" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U2" t="n">
         <v>1.7</v>
@@ -763,10 +763,10 @@
         <v>2.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ2" t="n">
         <v>1.59</v>
@@ -787,10 +787,10 @@
         <v>1.52</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="3">
@@ -830,13 +830,13 @@
         <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.26</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4.02</v>
       </c>
       <c r="M3" t="n">
         <v>1.25</v>
@@ -902,10 +902,10 @@
         <v>2.38</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ3" t="n">
         <v>1.49</v>
@@ -926,10 +926,10 @@
         <v>1.8</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="4">
@@ -969,13 +969,13 @@
         <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.28</v>
+        <v>2.92</v>
       </c>
       <c r="K4" t="n">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
       <c r="L4" t="n">
-        <v>2.71</v>
+        <v>2.34</v>
       </c>
       <c r="M4" t="n">
         <v>1.4</v>
@@ -996,10 +996,10 @@
         <v>3.3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="T4" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="U4" t="n">
         <v>1.73</v>
@@ -1041,10 +1041,10 @@
         <v>1.91</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AJ4" t="n">
         <v>1.72</v>
@@ -1059,22 +1059,22 @@
         <v>1.88</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
@@ -1086,98 +1086,98 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CSM Iaşi</t>
+          <t>Hebar 1918</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>2.75</v>
       </c>
       <c r="H5" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="I5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U5" t="n">
         <v>2</v>
       </c>
-      <c r="K5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P5" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="X5" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="Y5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z5" t="n">
         <v>1.75</v>
       </c>
-      <c r="Z5" t="n">
-        <v>1.88</v>
-      </c>
       <c r="AA5" t="n">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.69</v>
+        <v>1.41</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.38</v>
+        <v>0.88</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.07</v>
+        <v>2.29</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
         <v>0</v>
@@ -1213,7 +1213,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1225,128 +1225,128 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Beroe</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hebar 1918</t>
+          <t>CSM Iaşi</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>2.75</v>
       </c>
       <c r="H6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J6" t="n">
         <v>2.05</v>
       </c>
-      <c r="I6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.9</v>
-      </c>
       <c r="K6" t="n">
-        <v>3.05</v>
+        <v>3.26</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
       <c r="M6" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="N6" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P6" t="n">
-        <v>7.4</v>
+        <v>6.95</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="R6" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="S6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T6" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="W6" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="X6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA6" t="n">
         <v>1.25</v>
       </c>
-      <c r="Y6" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.88</v>
-      </c>
       <c r="AB6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AH6" t="n">
         <v>1.41</v>
       </c>
-      <c r="AC6" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="7">
@@ -1386,13 +1386,13 @@
         <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="K7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M7" t="n">
         <v>1.36</v>
@@ -1413,10 +1413,10 @@
         <v>3.6</v>
       </c>
       <c r="S7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
         <v>1.73</v>
@@ -1525,13 +1525,13 @@
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.62</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>4.42</v>
       </c>
       <c r="M8" t="n">
         <v>1.36</v>
@@ -1552,10 +1552,10 @@
         <v>3.25</v>
       </c>
       <c r="S8" t="n">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="T8" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="U8" t="n">
         <v>1.91</v>
@@ -1621,10 +1621,10 @@
         <v>1.26</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="9">
@@ -1664,13 +1664,13 @@
         <v>2.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>2.78</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>2.37</v>
       </c>
       <c r="M9" t="n">
         <v>1.36</v>
@@ -1727,49 +1727,49 @@
         <v>2.87</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1785,130 +1785,130 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lokomotiva Zagreb</t>
+          <t>ŁKS Łódź</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Slaven Koprivnica</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H10" t="n">
         <v>2.2</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.3</v>
-      </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="J10" t="n">
-        <v>1.63</v>
+        <v>3.19</v>
       </c>
       <c r="K10" t="n">
-        <v>3.68</v>
+        <v>3.44</v>
       </c>
       <c r="L10" t="n">
-        <v>4.47</v>
+        <v>2.2</v>
       </c>
       <c r="M10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P10" t="n">
         <v>9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="R10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="T10" t="n">
         <v>1.95</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>1.15</v>
+        <v>1.66</v>
       </c>
       <c r="X10" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.1</v>
+        <v>1.35</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="AF10" t="n">
         <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1924,124 +1924,124 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ŁKS Łódź</t>
+          <t>Lokomotiva Zagreb</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Slaven Koprivnica</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.9</v>
+        <v>1.63</v>
       </c>
       <c r="K11" t="n">
-        <v>3.55</v>
+        <v>3.68</v>
       </c>
       <c r="L11" t="n">
-        <v>2.21</v>
+        <v>4.47</v>
       </c>
       <c r="M11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P11" t="n">
         <v>9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="R11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S11" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="T11" t="n">
         <v>1.95</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y11" t="n">
         <v>2.1</v>
       </c>
-      <c r="W11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.35</v>
-      </c>
       <c r="Z11" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.48</v>
+        <v>2.78</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AK11" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.47</v>
+        <v>1.99</v>
       </c>
       <c r="AN11" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="12">
@@ -2081,37 +2081,37 @@
         <v>3.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="T12" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="U12" t="n">
         <v>1.67</v>
@@ -2120,13 +2120,13 @@
         <v>2.1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="Z12" t="n">
         <v>1.57</v>
@@ -2144,43 +2144,43 @@
         <v>3.04</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="13">
@@ -2220,37 +2220,37 @@
         <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="K13" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="T13" t="n">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="U13" t="n">
         <v>1.83</v>
@@ -2259,13 +2259,13 @@
         <v>1.83</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Z13" t="n">
         <v>1.29</v>
@@ -2283,43 +2283,43 @@
         <v>2.76</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="14">
@@ -2359,13 +2359,13 @@
         <v>6.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="K14" t="n">
-        <v>5.25</v>
+        <v>5.05</v>
       </c>
       <c r="L14" t="n">
-        <v>7.5</v>
+        <v>7.11</v>
       </c>
       <c r="M14" t="n">
         <v>1.2</v>
@@ -2431,10 +2431,10 @@
         <v>4.82</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ14" t="n">
         <v>1.28</v>
@@ -2498,13 +2498,13 @@
         <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.74</v>
       </c>
       <c r="L15" t="n">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
       <c r="M15" t="n">
         <v>1.29</v>
@@ -2525,10 +2525,10 @@
         <v>4.5</v>
       </c>
       <c r="S15" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T15" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="U15" t="n">
         <v>1.5</v>
@@ -2570,10 +2570,10 @@
         <v>2.41</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="AJ15" t="n">
         <v>1.26</v>
@@ -2637,13 +2637,13 @@
         <v>2.88</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="L16" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="M16" t="n">
         <v>1.4</v>
@@ -2664,10 +2664,10 @@
         <v>3.3</v>
       </c>
       <c r="S16" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="n">
         <v>1.8</v>
@@ -2758,16 +2758,16 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>FC Schaffhausen</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Neuchâtel Xamax</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
         <v>2.25</v>
@@ -2776,76 +2776,76 @@
         <v>2.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.28</v>
       </c>
       <c r="K17" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="L17" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="T17" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.86</v>
+        <v>1.29</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.91</v>
+        <v>2.94</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
@@ -2854,34 +2854,34 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Switzerland Challenge League</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2893,134 +2893,134 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Petrolul 52</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Botoşani</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.21</v>
+        <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="I18" t="n">
-        <v>5.8</v>
+        <v>2.4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.59</v>
+        <v>3.13</v>
       </c>
       <c r="K18" t="n">
-        <v>3.7</v>
+        <v>3.52</v>
       </c>
       <c r="L18" t="n">
-        <v>4.9</v>
+        <v>2.16</v>
       </c>
       <c r="M18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AB18" t="n">
         <v>1.43</v>
       </c>
-      <c r="N18" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AL18" t="n">
         <v>1.51</v>
       </c>
-      <c r="AC18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AP18" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Switzerland Challenge League</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -3032,128 +3032,128 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FC Schaffhausen</t>
+          <t>Petrolul 52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Neuchâtel Xamax</t>
+          <t>Botoşani</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.33</v>
+        <v>2.21</v>
       </c>
       <c r="H19" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="I19" t="n">
-        <v>2.38</v>
+        <v>5.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>1.68</v>
       </c>
       <c r="K19" t="n">
-        <v>3.35</v>
+        <v>3.72</v>
       </c>
       <c r="L19" t="n">
-        <v>1.94</v>
+        <v>5.15</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="S19" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="U19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>1.67</v>
       </c>
-      <c r="V19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="20">
@@ -3175,124 +3175,124 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>VVV</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="J20" t="n">
-        <v>2.7</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
         <v>3.8</v>
       </c>
       <c r="L20" t="n">
-        <v>2.38</v>
+        <v>1.83</v>
       </c>
       <c r="M20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="N20" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P20" t="n">
         <v>11</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="R20" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="T20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK20" t="n">
         <v>2.6</v>
       </c>
-      <c r="U20" t="n">
+      <c r="AL20" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>1.4</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3314,124 +3314,124 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Ajax II</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="K21" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="N21" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="S21" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AO21" t="n">
         <v>1.57</v>
       </c>
-      <c r="T21" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="22">
@@ -3453,124 +3453,124 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
         <v>2.45</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.85</v>
       </c>
       <c r="K22" t="n">
         <v>3.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.9</v>
+        <v>2.63</v>
       </c>
       <c r="M22" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="N22" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P22" t="n">
         <v>10</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="R22" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="U22" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="V22" t="n">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="W22" t="n">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="X22" t="n">
         <v>1.22</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.57</v>
+        <v>2.25</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.61</v>
+        <v>1.9</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="AD22" t="n">
-        <v>2.89</v>
+        <v>3.35</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AP22" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="23">
@@ -3592,85 +3592,85 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.18</v>
+        <v>1.91</v>
       </c>
       <c r="H23" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.74</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>2.72</v>
+        <v>1.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.82</v>
+        <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>2.31</v>
+        <v>8</v>
       </c>
       <c r="M23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="N23" t="n">
-        <v>3.72</v>
+        <v>3.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="T23" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="U23" t="n">
-        <v>1.43</v>
+        <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.41</v>
+        <v>1.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
@@ -3731,37 +3731,37 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>2.85</v>
       </c>
       <c r="J24" t="n">
-        <v>1.57</v>
+        <v>2.85</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="M24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N24" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
         <v>1.05</v>
@@ -3770,85 +3770,85 @@
         <v>10</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R24" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T24" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="U24" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="V24" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="X24" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.35</v>
+        <v>1.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AA24" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.83</v>
+        <v>1.47</v>
       </c>
       <c r="AC24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>1.47</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3870,124 +3870,124 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>3.18</v>
       </c>
       <c r="H25" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>2.74</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>2.72</v>
       </c>
       <c r="K25" t="n">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="L25" t="n">
-        <v>1.83</v>
+        <v>2.31</v>
       </c>
       <c r="M25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="N25" t="n">
-        <v>3.3</v>
+        <v>3.72</v>
       </c>
       <c r="O25" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="P25" t="n">
         <v>11</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="R25" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="S25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W25" t="n">
         <v>1.6</v>
       </c>
-      <c r="T25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.95</v>
-      </c>
       <c r="X25" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.71</v>
+        <v>0.33</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.12</v>
+        <v>1.41</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="26">
@@ -4009,124 +4009,124 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="J26" t="n">
-        <v>2.45</v>
+        <v>3.85</v>
       </c>
       <c r="K26" t="n">
         <v>3.6</v>
       </c>
       <c r="L26" t="n">
-        <v>2.63</v>
+        <v>1.9</v>
       </c>
       <c r="M26" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="N26" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P26" t="n">
         <v>10</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="S26" t="n">
-        <v>1.55</v>
+        <v>1.83</v>
       </c>
       <c r="T26" t="n">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="V26" t="n">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="W26" t="n">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="X26" t="n">
         <v>1.22</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.9</v>
+        <v>1.61</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="AD26" t="n">
-        <v>3.35</v>
+        <v>2.89</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="27">
@@ -4148,37 +4148,37 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ajax II</t>
+          <t>VVV</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="J27" t="n">
-        <v>1.73</v>
+        <v>2.7</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="M27" t="n">
         <v>1.25</v>
       </c>
       <c r="N27" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="O27" t="n">
         <v>1.01</v>
@@ -4187,55 +4187,55 @@
         <v>11</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="R27" t="n">
-        <v>5.25</v>
+        <v>5.2</v>
       </c>
       <c r="S27" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="T27" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="U27" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="V27" t="n">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="W27" t="n">
-        <v>1.22</v>
+        <v>1.61</v>
       </c>
       <c r="X27" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.05</v>
+        <v>1.44</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.13</v>
+        <v>1.87</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.65</v>
+        <v>3.54</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH27" t="n">
         <v>0</v>
@@ -4244,28 +4244,28 @@
         <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="28">
@@ -4287,37 +4287,37 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.85</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>2.85</v>
+        <v>1.57</v>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O28" t="n">
         <v>1.05</v>
@@ -4326,55 +4326,55 @@
         <v>10</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="S28" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T28" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="U28" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="V28" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="W28" t="n">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="X28" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.4</v>
+        <v>2.35</v>
       </c>
       <c r="Z28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA28" t="n">
         <v>2</v>
       </c>
-      <c r="AA28" t="n">
-        <v>1.86</v>
-      </c>
       <c r="AB28" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC28" t="n">
         <v>1.47</v>
       </c>
-      <c r="AC28" t="n">
-        <v>1.55</v>
-      </c>
       <c r="AD28" t="n">
-        <v>3.02</v>
+        <v>3.3</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AH28" t="n">
         <v>0</v>
@@ -4383,28 +4383,28 @@
         <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AP28" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="29">
@@ -4435,61 +4435,61 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H29" t="n">
         <v>2.4</v>
       </c>
       <c r="I29" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J29" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="T29" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="U29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V29" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z29" t="n">
         <v>1.29</v>
@@ -4507,49 +4507,49 @@
         <v>2.89</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AP29" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Germany Bundesliga</t>
+          <t>Austria 2. Liga</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -4561,134 +4561,134 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Köln</t>
+          <t>Kapfenberger SV</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bayern München</t>
+          <t>Grazer AK</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>7.5</v>
+        <v>4.33</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="I30" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="J30" t="n">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="K30" t="n">
-        <v>5.75</v>
+        <v>3.7</v>
       </c>
       <c r="L30" t="n">
-        <v>1.32</v>
+        <v>1.74</v>
       </c>
       <c r="M30" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="P30" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="R30" t="n">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="S30" t="n">
-        <v>1.28</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
-        <v>3.55</v>
+        <v>1.95</v>
       </c>
       <c r="U30" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V30" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="X30" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.6</v>
+        <v>2.29</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.97</v>
+        <v>1.03</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.89</v>
+        <v>1.47</v>
       </c>
       <c r="AD30" t="n">
-        <v>3.86</v>
+        <v>2.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>4</v>
+        <v>3.13</v>
       </c>
       <c r="AF30" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AH30" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AI30" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AK30" t="n">
-        <v>3.45</v>
+        <v>2.55</v>
       </c>
       <c r="AL30" t="n">
-        <v>1.42</v>
+        <v>1.78</v>
       </c>
       <c r="AM30" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="AN30" t="n">
-        <v>1.71</v>
+        <v>2.21</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
@@ -4700,134 +4700,134 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jagiellonia Białystok</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Torque</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="H31" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="I31" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>2.55</v>
+        <v>2.29</v>
       </c>
       <c r="K31" t="n">
-        <v>3.05</v>
+        <v>3.27</v>
       </c>
       <c r="L31" t="n">
-        <v>2.5</v>
+        <v>3.06</v>
       </c>
       <c r="M31" t="n">
         <v>1.44</v>
       </c>
       <c r="N31" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="O31" t="n">
         <v>1.07</v>
       </c>
       <c r="P31" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="S31" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="V31" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W31" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X31" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="Y31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO31" t="n">
         <v>1.47</v>
       </c>
-      <c r="Z31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Austria 2. Liga</t>
+          <t>Germany Bundesliga</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -4839,134 +4839,134 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Kapfenberger SV</t>
+          <t>Köln</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Grazer AK</t>
+          <t>Bayern München</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.33</v>
+        <v>7.5</v>
       </c>
       <c r="H32" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="J32" t="n">
-        <v>4.7</v>
+        <v>6.94</v>
       </c>
       <c r="K32" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W32" t="n">
         <v>3.9</v>
       </c>
-      <c r="L32" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA32" t="n">
-        <v>2.29</v>
+        <v>2.6</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.03</v>
+        <v>1.97</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.47</v>
+        <v>1.89</v>
       </c>
       <c r="AD32" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AM32" t="n">
         <v>2.5</v>
       </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>0</v>
-      </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
@@ -4978,134 +4978,134 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Torque</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J33" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="K33" t="n">
-        <v>3.1</v>
+        <v>3.48</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>3.53</v>
       </c>
       <c r="M33" t="n">
         <v>1.44</v>
       </c>
       <c r="N33" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="O33" t="n">
         <v>1.07</v>
       </c>
       <c r="P33" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="R33" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
         <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="U33" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="V33" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W33" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X33" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.31</v>
+        <v>0.86</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AD33" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="AF33" t="n">
         <v>8</v>
       </c>
       <c r="AG33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK33" t="n">
         <v>2.5</v>
       </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>2.37</v>
-      </c>
       <c r="AL33" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AM33" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AN33" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="AO33" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
@@ -5117,35 +5117,35 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Jagiellonia Białystok</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H34" t="n">
         <v>2.05</v>
       </c>
       <c r="I34" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="K34" t="n">
         <v>3.3</v>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="M34" t="n">
         <v>1.44</v>
@@ -5166,76 +5166,76 @@
         <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T34" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="U34" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V34" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W34" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="X34" t="n">
         <v>1.28</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="Z34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AB34" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AM34" t="n">
         <v>1.58</v>
       </c>
-      <c r="AC34" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AD34" t="n">
+      <c r="AN34" t="n">
         <v>3.05</v>
       </c>
-      <c r="AE34" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>2.35</v>
-      </c>
       <c r="AO34" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP34" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.28</v>
@@ -5278,13 +5278,13 @@
         <v>2.5</v>
       </c>
       <c r="J35" t="n">
-        <v>3.5</v>
+        <v>3.39</v>
       </c>
       <c r="K35" t="n">
-        <v>3.7</v>
+        <v>3.59</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="M35" t="n">
         <v>1.36</v>
@@ -5368,16 +5368,16 @@
         <v>1.49</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AP35" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="36">
@@ -5417,13 +5417,13 @@
         <v>1.83</v>
       </c>
       <c r="J36" t="n">
-        <v>6.75</v>
+        <v>6.35</v>
       </c>
       <c r="K36" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="M36" t="n">
         <v>1.29</v>
@@ -5444,10 +5444,10 @@
         <v>5</v>
       </c>
       <c r="S36" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="T36" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="U36" t="n">
         <v>1.8</v>
@@ -5556,13 +5556,13 @@
         <v>4.75</v>
       </c>
       <c r="J37" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="K37" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L37" t="n">
-        <v>4.33</v>
+        <v>4.58</v>
       </c>
       <c r="M37" t="n">
         <v>1.4</v>
@@ -5586,7 +5586,7 @@
         <v>2</v>
       </c>
       <c r="T37" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U37" t="n">
         <v>1.95</v>
@@ -5695,13 +5695,13 @@
         <v>5.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>5.17</v>
       </c>
       <c r="L38" t="n">
-        <v>5.5</v>
+        <v>6.26</v>
       </c>
       <c r="M38" t="n">
         <v>1.22</v>
@@ -5834,13 +5834,13 @@
         <v>3.46</v>
       </c>
       <c r="J39" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="K39" t="n">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="L39" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="M39" t="n">
         <v>1.6</v>
@@ -5855,10 +5855,10 @@
         <v>5.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R39" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="S39" t="n">
         <v>2.4</v>
@@ -5973,13 +5973,13 @@
         <v>4.33</v>
       </c>
       <c r="J40" t="n">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="K40" t="n">
-        <v>3.7</v>
+        <v>3.76</v>
       </c>
       <c r="L40" t="n">
-        <v>3.6</v>
+        <v>3.07</v>
       </c>
       <c r="M40" t="n">
         <v>1.36</v>
@@ -6000,10 +6000,10 @@
         <v>3.75</v>
       </c>
       <c r="S40" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="T40" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="U40" t="n">
         <v>1.67</v>
@@ -6112,10 +6112,10 @@
         <v>2.63</v>
       </c>
       <c r="J41" t="n">
-        <v>3.75</v>
+        <v>4.19</v>
       </c>
       <c r="K41" t="n">
-        <v>3.3</v>
+        <v>3.27</v>
       </c>
       <c r="L41" t="n">
         <v>1.91</v>
@@ -6184,10 +6184,10 @@
         <v>1.8</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AJ41" t="n">
         <v>1.48</v>
@@ -6208,10 +6208,10 @@
         <v>1.48</v>
       </c>
       <c r="AP41" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="42">
@@ -6251,13 +6251,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="K42" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L42" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -6278,10 +6278,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T42" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -6390,13 +6390,13 @@
         <v>3.6</v>
       </c>
       <c r="J43" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="K43" t="n">
-        <v>3.7</v>
+        <v>3.74</v>
       </c>
       <c r="L43" t="n">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="M43" t="n">
         <v>1.3</v>
@@ -6417,10 +6417,10 @@
         <v>4.2</v>
       </c>
       <c r="S43" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="T43" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="U43" t="n">
         <v>1.57</v>
@@ -6529,43 +6529,43 @@
         <v>4.33</v>
       </c>
       <c r="J44" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U44" t="n">
         <v>2</v>
       </c>
-      <c r="K44" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V44" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -6629,6 +6629,145 @@
       </c>
       <c r="AQ44" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>12</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K45" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L45" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-11-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>3.71</v>
+        <v>3.68</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="M2" t="n">
         <v>1.36</v>
@@ -718,7 +718,7 @@
         <v>3.6</v>
       </c>
       <c r="S2" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="T2" t="n">
         <v>1.99</v>
@@ -739,10 +739,10 @@
         <v>1.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AB2" t="n">
         <v>1.51</v>
@@ -830,13 +830,13 @@
         <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K3" t="n">
-        <v>4.26</v>
+        <v>4.32</v>
       </c>
       <c r="L3" t="n">
-        <v>4.02</v>
+        <v>3.96</v>
       </c>
       <c r="M3" t="n">
         <v>1.25</v>
@@ -857,10 +857,10 @@
         <v>5.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="T3" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="U3" t="n">
         <v>1.5</v>
@@ -878,10 +878,10 @@
         <v>2.15</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AB3" t="n">
         <v>1.63</v>
@@ -996,10 +996,10 @@
         <v>3.3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.99</v>
+        <v>1.88</v>
       </c>
       <c r="T4" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="U4" t="n">
         <v>1.73</v>
@@ -1017,10 +1017,10 @@
         <v>1.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AB4" t="n">
         <v>1.48</v>
@@ -1108,13 +1108,13 @@
         <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.46</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4.12</v>
+        <v>3.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.5</v>
@@ -1135,10 +1135,10 @@
         <v>2.75</v>
       </c>
       <c r="S5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U5" t="n">
         <v>2</v>
@@ -1247,13 +1247,13 @@
         <v>4.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.26</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>3.78</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.46</v>
@@ -1274,10 +1274,10 @@
         <v>2.57</v>
       </c>
       <c r="S6" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="T6" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
         <v>2.02</v>
@@ -1386,13 +1386,13 @@
         <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.36</v>
@@ -1413,10 +1413,10 @@
         <v>3.6</v>
       </c>
       <c r="S7" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="T7" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
         <v>1.73</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="K8" t="n">
-        <v>3.62</v>
+        <v>3.7</v>
       </c>
       <c r="L8" t="n">
-        <v>4.42</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.36</v>
@@ -1552,10 +1552,10 @@
         <v>3.25</v>
       </c>
       <c r="S8" t="n">
-        <v>2.03</v>
+        <v>1.78</v>
       </c>
       <c r="T8" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="U8" t="n">
         <v>1.91</v>
@@ -1664,13 +1664,13 @@
         <v>2.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.78</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>2.37</v>
+        <v>1.91</v>
       </c>
       <c r="M9" t="n">
         <v>1.36</v>
@@ -1691,10 +1691,10 @@
         <v>3.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="U9" t="n">
         <v>1.8</v>
@@ -1769,7 +1769,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Poland Ekstraklasa</t>
+          <t>Croatia Prva HNL</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1785,130 +1785,130 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ŁKS Łódź</t>
+          <t>Lokomotiva Zagreb</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Zagłębie Lubin</t>
+          <t>Slaven Koprivnica</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.19</v>
+        <v>1.63</v>
       </c>
       <c r="K10" t="n">
-        <v>3.44</v>
+        <v>3.68</v>
       </c>
       <c r="L10" t="n">
-        <v>2.2</v>
+        <v>4.47</v>
       </c>
       <c r="M10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P10" t="n">
         <v>9</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="R10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S10" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
         <v>1.95</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Y10" t="n">
         <v>2.1</v>
       </c>
-      <c r="W10" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1.35</v>
-      </c>
       <c r="Z10" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.48</v>
+        <v>2.78</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="AF10" t="n">
         <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.47</v>
+        <v>1.99</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Croatia Prva HNL</t>
+          <t>Poland Ekstraklasa</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1924,124 +1924,124 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lokomotiva Zagreb</t>
+          <t>ŁKS Łódź</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Slaven Koprivnica</t>
+          <t>Zagłębie Lubin</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.2</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.3</v>
-      </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="J11" t="n">
-        <v>1.63</v>
+        <v>2.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
-        <v>4.47</v>
+        <v>2.7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P11" t="n">
         <v>9</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X11" t="n">
         <v>1.25</v>
       </c>
-      <c r="R11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.2</v>
-      </c>
       <c r="Y11" t="n">
-        <v>2.1</v>
+        <v>1.35</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AH11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>1.29</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AK11" t="n">
         <v>3.3</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>2.7</v>
-      </c>
       <c r="AL11" t="n">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.99</v>
+        <v>2.47</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="12">
@@ -2063,31 +2063,31 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>St. Pölten</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SV Stripfing Weiden</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.97</v>
+        <v>1.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="L12" t="n">
-        <v>3.35</v>
+        <v>5.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.33</v>
@@ -2108,79 +2108,79 @@
         <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T12" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="W12" t="n">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="X12" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="Y12" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AL12" t="n">
         <v>1.83</v>
       </c>
-      <c r="Z12" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1.74</v>
-      </c>
       <c r="AM12" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.18</v>
+        <v>2.31</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="13">
@@ -2202,31 +2202,31 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>St. Pölten</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Horn</t>
+          <t>SV Stripfing Weiden</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="J13" t="n">
-        <v>1.49</v>
+        <v>1.93</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.33</v>
@@ -2247,79 +2247,79 @@
         <v>4</v>
       </c>
       <c r="S13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.67</v>
       </c>
-      <c r="T13" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y13" t="n">
         <v>1.83</v>
       </c>
-      <c r="V13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>2.55</v>
-      </c>
       <c r="Z13" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.43</v>
+        <v>1.43</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.76</v>
+        <v>3.04</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.25</v>
+        <v>9.1</v>
       </c>
       <c r="AG13" t="n">
-        <v>4.1</v>
+        <v>2.64</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="AI13" t="n">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.31</v>
+        <v>2.18</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="14">
@@ -2359,13 +2359,13 @@
         <v>6.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="K14" t="n">
-        <v>5.05</v>
+        <v>5.75</v>
       </c>
       <c r="L14" t="n">
-        <v>7.11</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
         <v>1.2</v>
@@ -2498,13 +2498,13 @@
         <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="K15" t="n">
-        <v>3.74</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>1.29</v>
@@ -2525,7 +2525,7 @@
         <v>4.5</v>
       </c>
       <c r="S15" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T15" t="n">
         <v>2.25</v>
@@ -2637,13 +2637,13 @@
         <v>2.88</v>
       </c>
       <c r="J16" t="n">
-        <v>3.17</v>
+        <v>3.13</v>
       </c>
       <c r="K16" t="n">
-        <v>3.52</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="M16" t="n">
         <v>1.4</v>
@@ -2667,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
         <v>1.8</v>
@@ -2770,19 +2770,19 @@
         <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.28</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
         <v>3.6</v>
       </c>
       <c r="L17" t="n">
-        <v>2.06</v>
+        <v>1.87</v>
       </c>
       <c r="M17" t="n">
         <v>1.33</v>
@@ -2803,16 +2803,16 @@
         <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W17" t="n">
         <v>1.9</v>
@@ -2860,7 +2860,7 @@
         <v>3.08</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.59</v>
+        <v>2.1</v>
       </c>
       <c r="AM17" t="n">
         <v>2.28</v>
@@ -2909,19 +2909,19 @@
         <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.13</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>3.52</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="M18" t="n">
         <v>1.33</v>
@@ -2942,16 +2942,16 @@
         <v>4.2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="T18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="U18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W18" t="n">
         <v>1.83</v>
@@ -3054,13 +3054,13 @@
         <v>5.8</v>
       </c>
       <c r="J19" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="K19" t="n">
-        <v>3.72</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>5.15</v>
+        <v>4.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.43</v>
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U19" t="n">
         <v>2.05</v>
@@ -3175,124 +3175,124 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>Groningen</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Eindhoven</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K20" t="n">
         <v>4</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R20" t="n">
         <v>3.8</v>
       </c>
-      <c r="L20" t="n">
+      <c r="S20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.83</v>
       </c>
-      <c r="M20" t="n">
+      <c r="V20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z20" t="n">
         <v>1.29</v>
       </c>
-      <c r="N20" t="n">
+      <c r="AA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD20" t="n">
         <v>3.3</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P20" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="AE20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AM20" t="n">
         <v>2.38</v>
       </c>
-      <c r="U20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>2.05</v>
-      </c>
       <c r="AN20" t="n">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.7</v>
+        <v>2.39</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="21">
@@ -3592,124 +3592,124 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.91</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.4</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L23" t="n">
-        <v>8</v>
+        <v>1.83</v>
       </c>
       <c r="M23" t="n">
         <v>1.29</v>
       </c>
       <c r="N23" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="S23" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V23" t="n">
         <v>2.35</v>
       </c>
-      <c r="U23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2</v>
-      </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.43</v>
+        <v>1.71</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.8</v>
+        <v>1.12</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.1</v>
+        <v>1.55</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.9</v>
+        <v>2.67</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AP23" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="24">
@@ -3731,124 +3731,124 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>AZ II</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.18</v>
       </c>
       <c r="H24" t="n">
-        <v>2.15</v>
+        <v>2.42</v>
       </c>
       <c r="I24" t="n">
-        <v>2.85</v>
+        <v>2.74</v>
       </c>
       <c r="J24" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>3.82</v>
       </c>
       <c r="L24" t="n">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="M24" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>3.72</v>
       </c>
       <c r="O24" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="S24" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="V24" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="W24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA24" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL24" t="n">
         <v>1.86</v>
       </c>
-      <c r="AB24" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AM24" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="AN24" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="AO24" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="25">
@@ -3870,124 +3870,124 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AZ II</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.18</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.42</v>
+        <v>2.15</v>
       </c>
       <c r="I25" t="n">
-        <v>2.74</v>
+        <v>2.45</v>
       </c>
       <c r="J25" t="n">
-        <v>2.72</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>3.82</v>
+        <v>3.6</v>
       </c>
       <c r="L25" t="n">
-        <v>2.31</v>
+        <v>1.9</v>
       </c>
       <c r="M25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y25" t="n">
         <v>1.25</v>
       </c>
-      <c r="N25" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P25" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1.44</v>
-      </c>
       <c r="Z25" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.33</v>
+        <v>1.57</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.41</v>
+        <v>1.61</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.65</v>
+        <v>2.89</v>
       </c>
       <c r="AE25" t="n">
-        <v>2.08</v>
+        <v>3.01</v>
       </c>
       <c r="AF25" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AI25" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AK25" t="n">
-        <v>2.48</v>
+        <v>2.43</v>
       </c>
       <c r="AL25" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="26">
@@ -4009,124 +4009,124 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>1.91</v>
       </c>
       <c r="H26" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="I26" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN26" t="n">
         <v>2.45</v>
       </c>
-      <c r="J26" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P26" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="AO26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>1.29</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>1.34</v>
       </c>
     </row>
     <row r="27">
@@ -4287,37 +4287,37 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Groningen</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Eindhoven</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H28" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>2.85</v>
       </c>
       <c r="J28" t="n">
-        <v>1.57</v>
+        <v>2.85</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="M28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="N28" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O28" t="n">
         <v>1.05</v>
@@ -4326,85 +4326,85 @@
         <v>10</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R28" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T28" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="U28" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="V28" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="W28" t="n">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="X28" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.35</v>
+        <v>1.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="AA28" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.83</v>
+        <v>1.47</v>
       </c>
       <c r="AC28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>1.47</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>1.56</v>
       </c>
     </row>
     <row r="29">
@@ -4435,22 +4435,22 @@
         </is>
       </c>
       <c r="G29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H29" t="n">
         <v>2.3</v>
       </c>
-      <c r="H29" t="n">
-        <v>2.4</v>
-      </c>
       <c r="I29" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
         <v>3.75</v>
       </c>
       <c r="L29" t="n">
-        <v>2.73</v>
+        <v>3.2</v>
       </c>
       <c r="M29" t="n">
         <v>1.25</v>
@@ -4471,16 +4471,16 @@
         <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="T29" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="U29" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V29" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W29" t="n">
         <v>1.18</v>
@@ -4507,13 +4507,13 @@
         <v>2.89</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="AF29" t="n">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.47</v>
+        <v>2.29</v>
       </c>
       <c r="AH29" t="n">
         <v>1.22</v>
@@ -4583,13 +4583,13 @@
         <v>2.38</v>
       </c>
       <c r="J30" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="K30" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="M30" t="n">
         <v>1.36</v>
@@ -4610,16 +4610,16 @@
         <v>3.75</v>
       </c>
       <c r="S30" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T30" t="n">
         <v>1.95</v>
       </c>
       <c r="U30" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W30" t="n">
         <v>1.9</v>
@@ -4667,7 +4667,7 @@
         <v>2.55</v>
       </c>
       <c r="AL30" t="n">
-        <v>1.78</v>
+        <v>2.38</v>
       </c>
       <c r="AM30" t="n">
         <v>2.02</v>
@@ -4722,13 +4722,13 @@
         <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="K31" t="n">
-        <v>3.27</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>3.06</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>1.44</v>
@@ -4749,10 +4749,10 @@
         <v>2.7</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="U31" t="n">
         <v>1.84</v>
@@ -4861,13 +4861,13 @@
         <v>1.62</v>
       </c>
       <c r="J32" t="n">
-        <v>6.94</v>
+        <v>10</v>
       </c>
       <c r="K32" t="n">
-        <v>5.65</v>
+        <v>6.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="M32" t="n">
         <v>1.17</v>
@@ -5000,13 +5000,13 @@
         <v>3.75</v>
       </c>
       <c r="J33" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="K33" t="n">
-        <v>3.48</v>
+        <v>3.1</v>
       </c>
       <c r="L33" t="n">
-        <v>3.53</v>
+        <v>3.3</v>
       </c>
       <c r="M33" t="n">
         <v>1.44</v>
@@ -5027,10 +5027,10 @@
         <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="T33" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="U33" t="n">
         <v>1.8</v>
@@ -5139,13 +5139,13 @@
         <v>3.5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="K34" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L34" t="n">
-        <v>2.83</v>
+        <v>2.75</v>
       </c>
       <c r="M34" t="n">
         <v>1.44</v>
@@ -5166,10 +5166,10 @@
         <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T34" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="U34" t="n">
         <v>1.91</v>
@@ -5278,13 +5278,13 @@
         <v>2.5</v>
       </c>
       <c r="J35" t="n">
-        <v>3.39</v>
+        <v>3.9</v>
       </c>
       <c r="K35" t="n">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="L35" t="n">
-        <v>2.11</v>
+        <v>1.87</v>
       </c>
       <c r="M35" t="n">
         <v>1.36</v>
@@ -5305,10 +5305,10 @@
         <v>3.75</v>
       </c>
       <c r="S35" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="T35" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="U35" t="n">
         <v>1.7</v>
@@ -5417,13 +5417,13 @@
         <v>1.83</v>
       </c>
       <c r="J36" t="n">
-        <v>6.35</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="M36" t="n">
         <v>1.29</v>
@@ -5556,13 +5556,13 @@
         <v>4.75</v>
       </c>
       <c r="J37" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="K37" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L37" t="n">
-        <v>4.58</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
         <v>1.4</v>
@@ -5586,7 +5586,7 @@
         <v>2</v>
       </c>
       <c r="T37" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U37" t="n">
         <v>1.95</v>
@@ -5695,13 +5695,13 @@
         <v>5.5</v>
       </c>
       <c r="J38" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="K38" t="n">
-        <v>5.17</v>
+        <v>4.75</v>
       </c>
       <c r="L38" t="n">
-        <v>6.26</v>
+        <v>6.5</v>
       </c>
       <c r="M38" t="n">
         <v>1.22</v>
@@ -5834,13 +5834,13 @@
         <v>3.46</v>
       </c>
       <c r="J39" t="n">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="K39" t="n">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="L39" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="M39" t="n">
         <v>1.6</v>
@@ -5855,10 +5855,10 @@
         <v>5.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R39" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="S39" t="n">
         <v>2.4</v>
@@ -5973,13 +5973,13 @@
         <v>4.33</v>
       </c>
       <c r="J40" t="n">
-        <v>2.14</v>
+        <v>1.95</v>
       </c>
       <c r="K40" t="n">
-        <v>3.76</v>
+        <v>3.3</v>
       </c>
       <c r="L40" t="n">
-        <v>3.07</v>
+        <v>3.9</v>
       </c>
       <c r="M40" t="n">
         <v>1.36</v>
@@ -6000,10 +6000,10 @@
         <v>3.75</v>
       </c>
       <c r="S40" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="T40" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U40" t="n">
         <v>1.67</v>
@@ -6112,13 +6112,13 @@
         <v>2.63</v>
       </c>
       <c r="J41" t="n">
-        <v>4.19</v>
+        <v>3.8</v>
       </c>
       <c r="K41" t="n">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="L41" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M41" t="n">
         <v>1.53</v>
@@ -6139,10 +6139,10 @@
         <v>2.85</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T41" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U41" t="n">
         <v>2.2</v>
@@ -6251,13 +6251,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L42" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -6278,10 +6278,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -6390,13 +6390,13 @@
         <v>3.6</v>
       </c>
       <c r="J43" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="K43" t="n">
-        <v>3.74</v>
+        <v>3.4</v>
       </c>
       <c r="L43" t="n">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
         <v>1.3</v>
@@ -6417,7 +6417,7 @@
         <v>4.2</v>
       </c>
       <c r="S43" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="T43" t="n">
         <v>2.1</v>
@@ -6529,52 +6529,52 @@
         <v>4.33</v>
       </c>
       <c r="J44" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="K44" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L44" t="n">
-        <v>3.61</v>
+        <v>3.75</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="S44" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T44" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V44" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="Z44" t="n">
         <v>1.65</v>
@@ -6601,34 +6601,34 @@
         <v>2.65</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AK44" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AL44" t="n">
         <v>2.2</v>
       </c>
       <c r="AM44" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AN44" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AO44" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AP44" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="45">
@@ -6668,13 +6668,13 @@
         <v>8.5</v>
       </c>
       <c r="J45" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="K45" t="n">
-        <v>4.02</v>
+        <v>4.33</v>
       </c>
       <c r="L45" t="n">
-        <v>7.55</v>
+        <v>8.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.4</v>
@@ -6695,10 +6695,10 @@
         <v>3.4</v>
       </c>
       <c r="S45" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="T45" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U45" t="n">
         <v>2.25</v>
